--- a/outputs/context_out_sheet_clip.xlsx
+++ b/outputs/context_out_sheet_clip.xlsx
@@ -451,162 +451,162 @@
     <row r="1" customFormat="1" s="1"/>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8692196607589722</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8813768029212952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9692806601524353</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9585172533988953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.967903733253479</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9858927130699158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9598252177238464</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9609424471855164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9579300880432129</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9646081924438477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9643441438674927</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9626508355140686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9599832892417908</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9423074126243591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9125280976295471</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8865216970443726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9522778391838074</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.894819438457489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9224062561988831</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8566421270370483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9506879448890686</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9520704746246338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9555396437644958</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9285032749176025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9614375829696655</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9166412353515625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9581069946289062</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9078289270401001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9152018427848816</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9247531890869141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.953518271446228</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9152207970619202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9457932114601135</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9029401540756226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9727197885513306</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9577611684799194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9191856384277344</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9098883271217346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9251649379730225</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9362210035324097</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/context_out_sheet_clip.xlsx
+++ b/outputs/context_out_sheet_clip.xlsx
@@ -1,41 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ynaho\PycharmProjects\galit_project\psychology_project\outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B1C665-9E6F-4AEB-BC96-F78BAE4AA6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>distance between regular and in context</t>
+  </si>
+  <si>
+    <t>distance between regular and out of context</t>
+  </si>
+  <si>
+    <t>distance between distance</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,81 +86,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -428,185 +401,285 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="9.9140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.4140625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="10.1640625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="11.25" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="13.4140625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1"/>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>0</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5.1458134651184082</v>
+      </c>
+      <c r="B2">
+        <v>4.8765554428100586</v>
+      </c>
+      <c r="C2">
+        <f>A2-B2</f>
+        <v>0.26925802230834961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.8001494407653809</v>
+      </c>
+      <c r="B3">
+        <v>3.2618603706359859</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C21" si="0">A3-B3</f>
+        <v>-0.46171092987060502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.8131899833679199</v>
+      </c>
+      <c r="B4">
+        <v>1.8729410171508789</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.94024896621704102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3.0544712543487549</v>
+      </c>
+      <c r="B5">
+        <v>3.0118200778961182</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>4.2651176452636719E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3.4951720237731929</v>
+      </c>
+      <c r="B6">
+        <v>3.1889698505401611</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.30620217323303178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.867490291595459</v>
+      </c>
+      <c r="B7">
+        <v>2.953264713287354</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-8.5774421691894975E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3.1709966659545898</v>
+      </c>
+      <c r="B8">
+        <v>3.9043312072753911</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-0.73333454132080123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4.1824750900268546</v>
+      </c>
+      <c r="B9">
+        <v>4.7124114036560059</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-0.52993631362915128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3.1104316711425781</v>
+      </c>
+      <c r="B10">
+        <v>4.559999942779541</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-1.4495682716369629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4.2215113639831543</v>
+      </c>
+      <c r="B11">
+        <v>5.6511802673339844</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-1.4296689033508301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3.0633950233459468</v>
+      </c>
+      <c r="B12">
+        <v>2.9756989479064941</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>8.7696075439452681E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2.94374680519104</v>
+      </c>
+      <c r="B13">
+        <v>3.6728591918945308</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-0.72911238670349077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2.5917634963989258</v>
+      </c>
+      <c r="B14">
+        <v>3.7804725170135498</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-1.188709020614624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2.9665756225585942</v>
+      </c>
+      <c r="B15">
+        <v>4.3515262603759766</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-1.3849506378173824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4.297419548034668</v>
+      </c>
+      <c r="B16">
+        <v>4.1850700378417969</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.11234951019287109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2.731024026870728</v>
+      </c>
+      <c r="B17">
+        <v>3.6276764869689941</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-0.89665246009826616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3.320618867874146</v>
+      </c>
+      <c r="B18">
+        <v>4.4892663955688477</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-1.1686475276947017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2.6261289119720459</v>
+      </c>
+      <c r="B19">
+        <v>3.251689195632935</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-0.62556028366088912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4.0044050216674796</v>
+      </c>
+      <c r="B20">
+        <v>4.120182991027832</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-0.11577796936035245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3.7549383640289311</v>
+      </c>
+      <c r="B21">
+        <v>3.4626293182373051</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.29230904579162598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" ref="A23:B23" si="1">AVERAGE(A2:A21)</f>
+        <v>3.35808584690094</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>3.7955202817916871</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(C2:C21)</f>
+        <v>-0.43743443489074724</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/context_out_sheet_clip.xlsx
+++ b/outputs/context_out_sheet_clip.xlsx
@@ -1,73 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ynaho\PycharmProjects\galit_project\psychology_project\outputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B1C665-9E6F-4AEB-BC96-F78BAE4AA6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>distance between regular and in context</t>
-  </si>
-  <si>
-    <t>distance between regular and out of context</t>
-  </si>
-  <si>
-    <t>distance between distance</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,22 +54,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -401,285 +428,295 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col width="35.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="38.6640625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="23.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="11.25" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13.4140625" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5.1458134651184082</v>
-      </c>
-      <c r="B2">
-        <v>4.8765554428100586</v>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>distance between regular and in context</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>distance between regular and out of context</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>distance between distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5.145813465118408</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.876555442810059</v>
       </c>
       <c r="C2">
         <f>A2-B2</f>
-        <v>0.26925802230834961</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2.8001494407653809</v>
-      </c>
-      <c r="B3">
-        <v>3.2618603706359859</v>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.800149440765381</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.261860370635986</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C21" si="0">A3-B3</f>
-        <v>-0.46171092987060502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2.8131899833679199</v>
-      </c>
-      <c r="B4">
-        <v>1.8729410171508789</v>
+        <f>A3-B3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.81318998336792</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.872941017150879</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.94024896621704102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3.0544712543487549</v>
-      </c>
-      <c r="B5">
-        <v>3.0118200778961182</v>
+        <f>A4-B4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.054471254348755</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.011820077896118</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>4.2651176452636719E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3.4951720237731929</v>
-      </c>
-      <c r="B6">
-        <v>3.1889698505401611</v>
+        <f>A5-B5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3.495172023773193</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.188969850540161</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.30620217323303178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+        <f>A6-B6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>2.867490291595459</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>2.953264713287354</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>-8.5774421691894975E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3.1709966659545898</v>
-      </c>
-      <c r="B8">
-        <v>3.9043312072753911</v>
+        <f>A7-B7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3.17099666595459</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.904331207275391</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>-0.73333454132080123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4.1824750900268546</v>
-      </c>
-      <c r="B9">
-        <v>4.7124114036560059</v>
+        <f>A8-B8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4.182475090026855</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.712411403656006</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-0.52993631362915128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3.1104316711425781</v>
-      </c>
-      <c r="B10">
+        <f>A9-B9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3.110431671142578</v>
+      </c>
+      <c r="B10" t="n">
         <v>4.559999942779541</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>-1.4495682716369629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>4.2215113639831543</v>
-      </c>
-      <c r="B11">
-        <v>5.6511802673339844</v>
+        <f>A10-B10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4.221511363983154</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.651180267333984</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>-1.4296689033508301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3.0633950233459468</v>
-      </c>
-      <c r="B12">
-        <v>2.9756989479064941</v>
+        <f>A11-B11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.063395023345947</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.975698947906494</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>8.7696075439452681E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+        <f>A12-B12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>2.94374680519104</v>
       </c>
-      <c r="B13">
-        <v>3.6728591918945308</v>
+      <c r="B13" t="n">
+        <v>3.672859191894531</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>-0.72911238670349077</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2.5917634963989258</v>
-      </c>
-      <c r="B14">
-        <v>3.7804725170135498</v>
+        <f>A13-B13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2.591763496398926</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.78047251701355</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>-1.188709020614624</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2.9665756225585942</v>
-      </c>
-      <c r="B15">
-        <v>4.3515262603759766</v>
+        <f>A14-B14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2.966575622558594</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.351526260375977</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>-1.3849506378173824</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+        <f>A15-B15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>4.297419548034668</v>
       </c>
-      <c r="B16">
-        <v>4.1850700378417969</v>
+      <c r="B16" t="n">
+        <v>4.185070037841797</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.11234951019287109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+        <f>A16-B16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>2.731024026870728</v>
       </c>
-      <c r="B17">
-        <v>3.6276764869689941</v>
+      <c r="B17" t="n">
+        <v>3.627676486968994</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>-0.89665246009826616</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+        <f>A17-B17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>3.320618867874146</v>
       </c>
-      <c r="B18">
-        <v>4.4892663955688477</v>
+      <c r="B18" t="n">
+        <v>4.489266395568848</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>-1.1686475276947017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2.6261289119720459</v>
-      </c>
-      <c r="B19">
+        <f>A18-B18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2.626128911972046</v>
+      </c>
+      <c r="B19" t="n">
         <v>3.251689195632935</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>-0.62556028366088912</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>4.0044050216674796</v>
-      </c>
-      <c r="B20">
+        <f>A19-B19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4.00440502166748</v>
+      </c>
+      <c r="B20" t="n">
         <v>4.120182991027832</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>-0.11577796936035245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>3.7549383640289311</v>
-      </c>
-      <c r="B21">
-        <v>3.4626293182373051</v>
+        <f>A20-B20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3.754938364028931</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.462629318237305</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.29230904579162598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <f>A21-B21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23">
-        <f t="shared" ref="A23:B23" si="1">AVERAGE(A2:A21)</f>
-        <v>3.35808584690094</v>
+        <f>AVERAGE(A2:A21)</f>
+        <v/>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
-        <v>3.7955202817916871</v>
+        <f>AVERAGE(B2:B21)</f>
+        <v/>
       </c>
       <c r="C23">
         <f>AVERAGE(C2:C21)</f>
-        <v>-0.43743443489074724</v>
+        <v/>
       </c>
     </row>
   </sheetData>
